--- a/procurement_export_rfq.xlsx
+++ b/procurement_export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">MODE OF PROCUREMENT: </t>
   </si>
   <si>
-    <t>Shopping</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t>RFQ No. :</t>
@@ -49,13 +49,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 27, 2022</t>
+    <t>March 29, 2022</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>FAD,LAGUNA</t>
+    <t>ORD</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -106,7 +106,7 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 350.00</t>
+    <t>PHP 65,500.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -133,21 +133,34 @@
     <t>PRICE PER UNIT</t>
   </si>
   <si>
-    <t>Vulcanize flat tire
-SAMPLE-FAD</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>₱250.00</t>
-  </si>
-  <si>
-    <t>Buffing mags
-test-LAGUNA</t>
-  </si>
-  <si>
-    <t>₱100.00</t>
+    <t>Executive Chair 
+TEST 3</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>₱3,500.00</t>
+  </si>
+  <si>
+    <t>₱14,000.00</t>
+  </si>
+  <si>
+    <t>Office Table (Clerical)
+TEST 3</t>
+  </si>
+  <si>
+    <t>₱4,500.00</t>
+  </si>
+  <si>
+    <t>Wooden Conference Table, 6 seater
+TEST 3</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>₱47,000.00</t>
   </si>
   <si>
     <t>NOTE:
@@ -1642,7 +1655,7 @@
       <c r="E31" s="109"/>
       <c r="F31" s="110"/>
       <c r="G31" s="120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="120" t="s">
         <v>39</v>
@@ -1650,7 +1663,9 @@
       <c r="I31" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="121" t="s">
+        <v>41</v>
+      </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -1663,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="109"/>
       <c r="D32" s="109"/>
@@ -1676,9 +1691,11 @@
         <v>39</v>
       </c>
       <c r="I32" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="121"/>
+        <v>43</v>
+      </c>
+      <c r="J32" s="121" t="s">
+        <v>43</v>
+      </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -1686,19 +1703,29 @@
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
     </row>
-    <row r="33" spans="1:16" customHeight="1" ht="370">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:16" customHeight="1" ht="45">
+      <c r="A33" s="37">
+        <v>3</v>
+      </c>
       <c r="B33" s="108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="109"/>
       <c r="D33" s="109"/>
       <c r="E33" s="109"/>
       <c r="F33" s="110"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="121"/>
+      <c r="G33" s="120">
+        <v>1</v>
+      </c>
+      <c r="H33" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="121" t="s">
+        <v>46</v>
+      </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -1706,9 +1733,11 @@
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" customHeight="1" ht="370">
       <c r="A34" s="37"/>
-      <c r="B34" s="108"/>
+      <c r="B34" s="108" t="s">
+        <v>47</v>
+      </c>
       <c r="C34" s="109"/>
       <c r="D34" s="109"/>
       <c r="E34" s="109"/>
@@ -1756,14 +1785,14 @@
     </row>
     <row r="37" spans="1:16" customHeight="1" ht="12.75" s="13" customFormat="1">
       <c r="A37" s="32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
       <c r="E37" s="22"/>
       <c r="F37" s="41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="35"/>
@@ -1790,7 +1819,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -1852,7 +1881,7 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H42" s="46"/>
       <c r="I42" s="46"/>
@@ -1872,7 +1901,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1880,7 +1909,7 @@
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>

--- a/procurement_export_rfq.xlsx
+++ b/procurement_export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,13 +31,10 @@
     <t xml:space="preserve">MODE OF PROCUREMENT: </t>
   </si>
   <si>
-    <t>Small Value Procurement</t>
-  </si>
-  <si>
     <t>RFQ No. :</t>
   </si>
   <si>
-    <t>2022-0003</t>
+    <t>2022-004</t>
   </si>
   <si>
     <t>Name of Procuring Entity:</t>
@@ -49,15 +46,12 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 29, 2022</t>
+    <t>November 30, -0001</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>ORD</t>
-  </si>
-  <si>
     <t>Company Name:</t>
   </si>
   <si>
@@ -106,7 +100,7 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 65,500.00</t>
+    <t>PHP 170,406.99</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -131,41 +125,11 @@
   </si>
   <si>
     <t>PRICE PER UNIT</t>
-  </si>
-  <si>
-    <t>Executive Chair 
-TEST 3</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>₱3,500.00</t>
-  </si>
-  <si>
-    <t>₱14,000.00</t>
-  </si>
-  <si>
-    <t>Office Table (Clerical)
-TEST 3</t>
-  </si>
-  <si>
-    <t>₱4,500.00</t>
-  </si>
-  <si>
-    <t>Wooden Conference Table, 6 seater
-TEST 3</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>₱47,000.00</t>
   </si>
   <si>
     <t>NOTE:
 *In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
-  1. Valid Business Permit 2021 ( Application for renewal with Official Receipt 2021) 
+  1. Valid Business Permit 2022 ( Application for renewal with Official Receipt 2022) 
   2. Latest Income/Business Tax Return
   3. PhilGEPS Registration No. (Please indicate on the space provided above)
   4. a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
@@ -1263,48 +1227,46 @@
       </c>
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
-      <c r="D5" s="50" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="51"/>
       <c r="G5" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="119"/>
       <c r="I5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="51"/>
       <c r="G6" s="48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="80" t="s">
-        <v>12</v>
+      <c r="D7" s="80">
+        <v>0</v>
       </c>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -1315,7 +1277,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -1329,7 +1291,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -1343,13 +1305,13 @@
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="15.75">
       <c r="A10" s="66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
       <c r="E10" s="50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -1359,7 +1321,7 @@
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="14.4">
       <c r="A11" s="52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -1385,7 +1347,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -1399,14 +1361,14 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
       <c r="E14" s="70"/>
       <c r="F14" s="68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
@@ -1427,14 +1389,14 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="83"/>
       <c r="F16" s="71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" s="72"/>
       <c r="H16" s="72"/>
@@ -1443,7 +1405,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -1462,7 +1424,7 @@
       <c r="D18" s="72"/>
       <c r="E18" s="73"/>
       <c r="F18" s="71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
@@ -1471,7 +1433,7 @@
     </row>
     <row r="19" spans="1:16" customHeight="1" ht="13.95">
       <c r="A19" s="71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -1497,7 +1459,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -1523,7 +1485,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -1562,7 +1524,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
@@ -1577,14 +1539,14 @@
     </row>
     <row r="27" spans="1:16" customHeight="1" ht="15.75">
       <c r="A27" s="96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="97"/>
       <c r="C27" s="97"/>
       <c r="D27" s="97"/>
       <c r="E27" s="98"/>
       <c r="F27" s="102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="103"/>
       <c r="H27" s="103"/>
@@ -1599,7 +1561,7 @@
       <c r="D28" s="100"/>
       <c r="E28" s="101"/>
       <c r="F28" s="105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
@@ -1608,26 +1570,26 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="J29" s="62" t="s">
         <v>35</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="62" t="s">
-        <v>37</v>
       </c>
       <c r="M29" s="9"/>
     </row>
@@ -1643,29 +1605,19 @@
       <c r="I30" s="75"/>
       <c r="J30" s="63"/>
     </row>
-    <row r="31" spans="1:16" customHeight="1" ht="45">
-      <c r="A31" s="37">
-        <v>1</v>
-      </c>
+    <row r="31" spans="1:16" customHeight="1" ht="370">
+      <c r="A31" s="37"/>
       <c r="B31" s="108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="109"/>
       <c r="D31" s="109"/>
       <c r="E31" s="109"/>
       <c r="F31" s="110"/>
-      <c r="G31" s="120">
-        <v>4</v>
-      </c>
-      <c r="H31" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="121" t="s">
-        <v>41</v>
-      </c>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="121"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -1673,29 +1625,17 @@
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
     </row>
-    <row r="32" spans="1:16" customHeight="1" ht="45">
-      <c r="A32" s="37">
-        <v>2</v>
-      </c>
-      <c r="B32" s="108" t="s">
-        <v>42</v>
-      </c>
+    <row r="32" spans="1:16">
+      <c r="A32" s="37"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="109"/>
       <c r="D32" s="109"/>
       <c r="E32" s="109"/>
       <c r="F32" s="110"/>
-      <c r="G32" s="120">
-        <v>1</v>
-      </c>
-      <c r="H32" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="121" t="s">
-        <v>43</v>
-      </c>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="121"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -1703,29 +1643,17 @@
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
     </row>
-    <row r="33" spans="1:16" customHeight="1" ht="45">
-      <c r="A33" s="37">
-        <v>3</v>
-      </c>
-      <c r="B33" s="108" t="s">
-        <v>44</v>
-      </c>
+    <row r="33" spans="1:16">
+      <c r="A33" s="37"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="109"/>
       <c r="D33" s="109"/>
       <c r="E33" s="109"/>
       <c r="F33" s="110"/>
-      <c r="G33" s="120">
-        <v>1</v>
-      </c>
-      <c r="H33" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="121" t="s">
-        <v>46</v>
-      </c>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="121"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -1733,11 +1661,9 @@
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
     </row>
-    <row r="34" spans="1:16" customHeight="1" ht="370">
+    <row r="34" spans="1:16">
       <c r="A34" s="37"/>
-      <c r="B34" s="108" t="s">
-        <v>47</v>
-      </c>
+      <c r="B34" s="108"/>
       <c r="C34" s="109"/>
       <c r="D34" s="109"/>
       <c r="E34" s="109"/>
@@ -1785,14 +1711,14 @@
     </row>
     <row r="37" spans="1:16" customHeight="1" ht="12.75" s="13" customFormat="1">
       <c r="A37" s="32" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
       <c r="E37" s="22"/>
       <c r="F37" s="41" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="35"/>
@@ -1819,7 +1745,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="43" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -1881,7 +1807,7 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="46" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H42" s="46"/>
       <c r="I42" s="46"/>
@@ -1901,7 +1827,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1909,7 +1835,7 @@
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="47" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>

--- a/procurement_export_rfq.xlsx
+++ b/procurement_export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,10 +31,13 @@
     <t xml:space="preserve">MODE OF PROCUREMENT: </t>
   </si>
   <si>
+    <t>Small Value Procurement</t>
+  </si>
+  <si>
     <t>RFQ No. :</t>
   </si>
   <si>
-    <t>2022-004</t>
+    <t>2022-001</t>
   </si>
   <si>
     <t>Name of Procuring Entity:</t>
@@ -46,12 +49,15 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>November 30, -0001</t>
+    <t>January 01, 1970</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
+    <t>LGMED</t>
+  </si>
+  <si>
     <t>Company Name:</t>
   </si>
   <si>
@@ -100,7 +106,7 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 170,406.99</t>
+    <t>PHP 450.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -125,6 +131,16 @@
   </si>
   <si>
     <t>PRICE PER UNIT</t>
+  </si>
+  <si>
+    <t>Cignal Load Card
+dd</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>₱450.00</t>
   </si>
   <si>
     <t>NOTE:
@@ -1227,46 +1243,48 @@
       </c>
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
-      <c r="D5" s="50"/>
+      <c r="D5" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="50"/>
       <c r="F5" s="51"/>
       <c r="G5" s="48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="119"/>
       <c r="I5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="51"/>
       <c r="G6" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="80">
-        <v>0</v>
+      <c r="D7" s="80" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -1277,7 +1295,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -1291,7 +1309,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -1305,13 +1323,13 @@
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="15.75">
       <c r="A10" s="66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
       <c r="E10" s="50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -1321,7 +1339,7 @@
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="14.4">
       <c r="A11" s="52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -1347,7 +1365,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -1361,14 +1379,14 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
       <c r="E14" s="70"/>
       <c r="F14" s="68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
@@ -1389,14 +1407,14 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="83"/>
       <c r="F16" s="71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16" s="72"/>
       <c r="H16" s="72"/>
@@ -1405,7 +1423,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -1424,7 +1442,7 @@
       <c r="D18" s="72"/>
       <c r="E18" s="73"/>
       <c r="F18" s="71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
@@ -1433,7 +1451,7 @@
     </row>
     <row r="19" spans="1:16" customHeight="1" ht="13.95">
       <c r="A19" s="71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -1459,7 +1477,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -1485,7 +1503,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -1524,7 +1542,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
@@ -1539,14 +1557,14 @@
     </row>
     <row r="27" spans="1:16" customHeight="1" ht="15.75">
       <c r="A27" s="96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="97"/>
       <c r="C27" s="97"/>
       <c r="D27" s="97"/>
       <c r="E27" s="98"/>
       <c r="F27" s="102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="103"/>
       <c r="H27" s="103"/>
@@ -1561,7 +1579,7 @@
       <c r="D28" s="100"/>
       <c r="E28" s="101"/>
       <c r="F28" s="105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
@@ -1570,26 +1588,26 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29" s="74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I29" s="74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M29" s="9"/>
     </row>
@@ -1605,19 +1623,29 @@
       <c r="I30" s="75"/>
       <c r="J30" s="63"/>
     </row>
-    <row r="31" spans="1:16" customHeight="1" ht="370">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:16" customHeight="1" ht="45">
+      <c r="A31" s="37">
+        <v>1</v>
+      </c>
       <c r="B31" s="108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="109"/>
       <c r="D31" s="109"/>
       <c r="E31" s="109"/>
       <c r="F31" s="110"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="121"/>
+      <c r="G31" s="120">
+        <v>1</v>
+      </c>
+      <c r="H31" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="121" t="s">
+        <v>40</v>
+      </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -1625,9 +1653,11 @@
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" customHeight="1" ht="370">
       <c r="A32" s="37"/>
-      <c r="B32" s="108"/>
+      <c r="B32" s="108" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="109"/>
       <c r="D32" s="109"/>
       <c r="E32" s="109"/>
@@ -1711,14 +1741,14 @@
     </row>
     <row r="37" spans="1:16" customHeight="1" ht="12.75" s="13" customFormat="1">
       <c r="A37" s="32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
       <c r="E37" s="22"/>
       <c r="F37" s="41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="35"/>
@@ -1745,7 +1775,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -1807,7 +1837,7 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H42" s="46"/>
       <c r="I42" s="46"/>
@@ -1827,7 +1857,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1835,7 +1865,7 @@
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>

--- a/procurement_export_rfq.xlsx
+++ b/procurement_export_rfq.xlsx
@@ -10,14 +10,14 @@
     <sheet name="RFQ Sample" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'RFQ Sample'!$A$1:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RFQ Sample'!$A$1:$J$125</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">MODE OF PROCUREMENT: </t>
   </si>
   <si>
-    <t>Small Value Procurement</t>
+    <t>Shopping</t>
   </si>
   <si>
     <t>RFQ No. :</t>
   </si>
   <si>
-    <t>2022-001</t>
+    <t>2022-0093</t>
   </si>
   <si>
     <t>Name of Procuring Entity:</t>
@@ -49,7 +49,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>January 01, 1970</t>
+    <t>May 10, 2022</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -106,7 +106,7 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 450.00</t>
+    <t>PHP 48,500.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -133,14 +133,159 @@
     <t>PRICE PER UNIT</t>
   </si>
   <si>
-    <t>Cignal Load Card
-dd</t>
+    <t xml:space="preserve">Bond Paper 80gsm (A4)
+</t>
+  </si>
+  <si>
+    <t>ream</t>
+  </si>
+  <si>
+    <t>₱300.00</t>
+  </si>
+  <si>
+    <t>₱3,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bond Paper 80gsm (Long) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab, arrow flags, 10x48mm, 25shts/set, 7 colors/pack
+</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>₱100.00</t>
+  </si>
+  <si>
+    <t>₱2,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scissors
+</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>₱450.00</t>
+    <t>₱500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stapler HD 50R with Remover
+</t>
+  </si>
+  <si>
+    <t>₱2,500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Binder Clip 2" (12pcs)
+</t>
+  </si>
+  <si>
+    <t>₱80.00</t>
+  </si>
+  <si>
+    <t>₱400.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Paper
+</t>
+  </si>
+  <si>
+    <t>₱180.00</t>
+  </si>
+  <si>
+    <t>₱1,800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Paper (160gsm), A4
+</t>
+  </si>
+  <si>
+    <t>₱250.00</t>
+  </si>
+  <si>
+    <t>₱2,750.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masking Tape 24mmx22mm
+</t>
+  </si>
+  <si>
+    <t>₱50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticky Notes, 3x3 Yellow
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glue All Purpose color white 130grams 
+</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>₱800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sticker paper matte A4
+</t>
+  </si>
+  <si>
+    <t>₱1,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Card
+</t>
+  </si>
+  <si>
+    <t>₱5,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB 3.0 Dual Type Slot Type A and C Micro SD and SD Card Reader
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x AAA Rechargeable Batteries
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x AA Rechargeable Batteries
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripod Quick Release Plate
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon AC-E6N AC Adapter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon DR-E6 DC Coupler
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full-size HDMI male to Mini HDMI male cable
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freestanding Expandable Brochure Holder display system Holds 6 brochures A4 size
+</t>
+  </si>
+  <si>
+    <t>₱10,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Tier Wooden Ladder Shelf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribbon and Gift Wrapper
+</t>
   </si>
   <si>
     <t>NOTE:
@@ -158,13 +303,13 @@
       b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>Warranty</t>
+    <t>Waranty</t>
   </si>
   <si>
     <t>Price Validity</t>
   </si>
   <si>
-    <t xml:space="preserve">                         After having carefully read and accepted your General Conditions, I/WE quote on the item(s) at prices noted above.</t>
+    <t xml:space="preserve">                After having carefully read and accepted your General Conditions, I/WE quote on the item(s) at prices noted above.</t>
   </si>
   <si>
     <t>Printed Name/Signature/Date</t>
@@ -173,7 +318,7 @@
     <t>Revised Form 2012</t>
   </si>
   <si>
-    <t>Tel. No./Cellphone No.</t>
+    <t>Tel. No/Cellphone No.</t>
   </si>
 </sst>
 </file>
@@ -181,8 +326,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -262,6 +407,24 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -271,25 +434,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -395,11 +540,16 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -411,8 +561,25 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -427,34 +594,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="105">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -494,9 +639,6 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -518,108 +660,204 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="3" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="3" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="3" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="165" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -641,185 +879,41 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="164" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="165" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="165" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="165" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,73 +1251,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="true" style="40"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="true" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="true" style="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="true" style="21"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="true" style="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="true" style="1"/>
     <col min="6" max="6" width="14" customWidth="true" style="1"/>
     <col min="7" max="7" width="8" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="true" style="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="true" style="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="true" style="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true" style="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="true" style="1"/>
-    <col min="15" max="15" width="11.5546875" customWidth="true" style="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="true" style="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true" style="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="true" style="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="true" style="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="true" style="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="true" style="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="true" style="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="15">
       <c r="A4" s="2"/>
@@ -1238,316 +1332,316 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:16" customHeight="1" ht="16.5">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="50" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="48" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="119"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="48" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="78" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="79"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="80" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="15.75">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="50" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A11" s="52" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:16" customHeight="1" ht="14.45">
+      <c r="A11" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="68" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="71" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="71" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:16" customHeight="1" ht="13.95">
-      <c r="A19" s="71" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:16" customHeight="1" ht="13.9">
+      <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:16" customHeight="1" ht="21.6">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1556,330 +1650,725 @@
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" customHeight="1" ht="15.75">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="102" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="105" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="62"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="H29" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="71" t="s">
         <v>37</v>
       </c>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:16" customHeight="1" ht="30">
-      <c r="A30" s="77"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="63"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:16" customHeight="1" ht="45">
-      <c r="A31" s="37">
+      <c r="A31" s="20">
         <v>1</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="120">
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="22">
+        <v>10</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" customHeight="1" ht="45">
+      <c r="A32" s="94">
+        <v>2</v>
+      </c>
+      <c r="B32" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95">
+        <v>10</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" customHeight="1" ht="45">
+      <c r="A33" s="94">
+        <v>3</v>
+      </c>
+      <c r="B33" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95">
+        <v>20</v>
+      </c>
+      <c r="H33" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" customHeight="1" ht="45">
+      <c r="A34" s="94">
+        <v>4</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95">
+        <v>5</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" customHeight="1" ht="45">
+      <c r="A35" s="94">
+        <v>5</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95">
+        <v>5</v>
+      </c>
+      <c r="H35" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" customHeight="1" ht="45">
+      <c r="A36" s="94">
+        <v>6</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95">
+        <v>5</v>
+      </c>
+      <c r="H36" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" customHeight="1" ht="45">
+      <c r="A37" s="94">
+        <v>7</v>
+      </c>
+      <c r="B37" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95">
+        <v>10</v>
+      </c>
+      <c r="H37" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" customHeight="1" ht="45">
+      <c r="A38" s="94">
+        <v>8</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95">
+        <v>11</v>
+      </c>
+      <c r="H38" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" customHeight="1" ht="45">
+      <c r="A39" s="94">
+        <v>9</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95">
+        <v>5</v>
+      </c>
+      <c r="H39" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" customHeight="1" ht="45">
+      <c r="A40" s="94">
+        <v>10</v>
+      </c>
+      <c r="B40" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95">
+        <v>20</v>
+      </c>
+      <c r="H40" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" customHeight="1" ht="45">
+      <c r="A41" s="94">
+        <v>11</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95">
+        <v>10</v>
+      </c>
+      <c r="H41" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" customHeight="1" ht="45">
+      <c r="A42" s="94">
+        <v>12</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95">
+        <v>10</v>
+      </c>
+      <c r="H42" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" customHeight="1" ht="45">
+      <c r="A43" s="94">
+        <v>13</v>
+      </c>
+      <c r="B43" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95">
+        <v>5</v>
+      </c>
+      <c r="H43" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" customHeight="1" ht="45">
+      <c r="A44" s="94">
+        <v>14</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95">
+        <v>2</v>
+      </c>
+      <c r="H44" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" customHeight="1" ht="45">
+      <c r="A45" s="94">
+        <v>15</v>
+      </c>
+      <c r="B45" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95">
+        <v>2</v>
+      </c>
+      <c r="H45" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" customHeight="1" ht="45">
+      <c r="A46" s="94">
+        <v>16</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95">
+        <v>2</v>
+      </c>
+      <c r="H46" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" customHeight="1" ht="45">
+      <c r="A47" s="94">
+        <v>17</v>
+      </c>
+      <c r="B47" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95">
+        <v>2</v>
+      </c>
+      <c r="H47" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" customHeight="1" ht="45">
+      <c r="A48" s="94">
+        <v>18</v>
+      </c>
+      <c r="B48" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95">
         <v>1</v>
       </c>
-      <c r="H31" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="1:16" customHeight="1" ht="370">
-      <c r="A32" s="37"/>
-      <c r="B32" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="37"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="37"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="37"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-    </row>
-    <row r="36" spans="1:16" customHeight="1" ht="14.4" s="13" customFormat="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:16" customHeight="1" ht="12.75" s="13" customFormat="1">
-      <c r="A37" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="26"/>
+      <c r="H48" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" customHeight="1" ht="45">
+      <c r="A49" s="94">
+        <v>19</v>
+      </c>
+      <c r="B49" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95">
+        <v>1</v>
+      </c>
+      <c r="H49" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" customHeight="1" ht="45">
+      <c r="A50" s="94">
+        <v>20</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95">
+        <v>2</v>
+      </c>
+      <c r="H50" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" customHeight="1" ht="45">
+      <c r="A51" s="94">
+        <v>21</v>
+      </c>
+      <c r="B51" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95">
+        <v>2</v>
+      </c>
+      <c r="H51" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" customHeight="1" ht="45">
+      <c r="A52" s="94">
+        <v>22</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95">
+        <v>1</v>
+      </c>
+      <c r="H52" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="J52" s="95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" customHeight="1" ht="45">
+      <c r="A53" s="94">
+        <v>23</v>
+      </c>
+      <c r="B53" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95">
+        <v>1</v>
+      </c>
+      <c r="H53" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" customHeight="1" ht="370">
+      <c r="A54" s="94"/>
+      <c r="B54" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="97"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="G60" s="103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="103" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="F18:J22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:J15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="A23:E25"/>
@@ -1887,42 +2376,41 @@
     <mergeCell ref="A27:E28"/>
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="F16:J17"/>
-    <mergeCell ref="F18:J22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A39:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:J15"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A58:J58"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.23622047244094" right="0.23622047244094" top="0.59055118110236" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>
@@ -1935,9 +2423,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="35" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/procurement_export_rfq.xlsx
+++ b/procurement_export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -37,7 +37,7 @@
     <t>RFQ No. :</t>
   </si>
   <si>
-    <t>2022-0093</t>
+    <t>2023-00002</t>
   </si>
   <si>
     <t>Name of Procuring Entity:</t>
@@ -49,15 +49,12 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>May 10, 2022</t>
+    <t>January 26, 2023</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
     <t>Company Name:</t>
   </si>
   <si>
@@ -106,7 +103,7 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 48,500.00</t>
+    <t>PHP 33,000.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -133,159 +130,11 @@
     <t>PRICE PER UNIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Bond Paper 80gsm (A4)
-</t>
-  </si>
-  <si>
-    <t>ream</t>
-  </si>
-  <si>
-    <t>₱300.00</t>
-  </si>
-  <si>
-    <t>₱3,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bond Paper 80gsm (Long) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab, arrow flags, 10x48mm, 25shts/set, 7 colors/pack
-</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>₱100.00</t>
-  </si>
-  <si>
-    <t>₱2,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scissors
-</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>₱500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stapler HD 50R with Remover
-</t>
-  </si>
-  <si>
-    <t>₱2,500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Binder Clip 2" (12pcs)
-</t>
-  </si>
-  <si>
-    <t>₱80.00</t>
-  </si>
-  <si>
-    <t>₱400.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo Paper
-</t>
-  </si>
-  <si>
-    <t>₱180.00</t>
-  </si>
-  <si>
-    <t>₱1,800.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Paper (160gsm), A4
-</t>
-  </si>
-  <si>
-    <t>₱250.00</t>
-  </si>
-  <si>
-    <t>₱2,750.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masking Tape 24mmx22mm
-</t>
-  </si>
-  <si>
-    <t>₱50.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sticky Notes, 3x3 Yellow
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glue All Purpose color white 130grams 
-</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t>₱800.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sticker paper matte A4
-</t>
-  </si>
-  <si>
-    <t>₱1,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory Card
-</t>
-  </si>
-  <si>
-    <t>₱5,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB 3.0 Dual Type Slot Type A and C Micro SD and SD Card Reader
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x AAA Rechargeable Batteries
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x AA Rechargeable Batteries
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tripod Quick Release Plate
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon AC-E6N AC Adapter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon DR-E6 DC Coupler
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full-size HDMI male to Mini HDMI male cable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freestanding Expandable Brochure Holder display system Holds 6 brochures A4 size
-</t>
-  </si>
-  <si>
-    <t>₱10,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Tier Wooden Ladder Shelf
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribbon and Gift Wrapper
-</t>
+    <t>Epson 001 T03Y Genuine Ink Bottle Set for Epson L6170
+e</t>
+  </si>
+  <si>
+    <t>₱1,500.00</t>
   </si>
   <si>
     <t>NOTE:
@@ -293,7 +142,7 @@
   1. Valid Business Permit 2022 ( Application for renewal with Official Receipt 2022) 
   2. Latest Income/Business Tax Return
   3. PhilGEPS Registration No. (Please indicate on the space provided above)
-  4. a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
+  4. a. Any documents to prove that the signatory of the quotation is authorized representative of the company.
       b. Photocopy of ID bearing the pictures/ signature of the representatives. 
   5. Notarized Omnibus Sworn Statement 
  * Please submit your quotation using our official Request for Quotation (RFQ) Form. You can secure a copy of the 
@@ -1251,10 +1100,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1377,9 +1226,7 @@
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
-      <c r="D7" s="70" t="s">
-        <v>12</v>
-      </c>
+      <c r="D7" s="70"/>
       <c r="E7" s="70"/>
       <c r="F7" s="70"/>
       <c r="G7" s="5"/>
@@ -1389,7 +1236,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69"/>
@@ -1403,7 +1250,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
@@ -1417,13 +1264,13 @@
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="15.75">
       <c r="A10" s="75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
       <c r="E10" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
@@ -1433,7 +1280,7 @@
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="14.45">
       <c r="A11" s="83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -1459,7 +1306,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
@@ -1473,14 +1320,14 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
       <c r="E14" s="79"/>
       <c r="F14" s="77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -1501,14 +1348,14 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="82"/>
       <c r="F16" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
@@ -1517,7 +1364,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
@@ -1536,7 +1383,7 @@
       <c r="D18" s="43"/>
       <c r="E18" s="44"/>
       <c r="F18" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
@@ -1545,7 +1392,7 @@
     </row>
     <row r="19" spans="1:16" customHeight="1" ht="13.9">
       <c r="A19" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -1571,7 +1418,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1597,7 +1444,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -1636,7 +1483,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -1651,14 +1498,14 @@
     </row>
     <row r="27" spans="1:16" customHeight="1" ht="15.75">
       <c r="A27" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
       <c r="E27" s="53"/>
       <c r="F27" s="57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
@@ -1673,7 +1520,7 @@
       <c r="D28" s="55"/>
       <c r="E28" s="56"/>
       <c r="F28" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="61"/>
       <c r="H28" s="61"/>
@@ -1682,26 +1529,26 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>33</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="I29" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="63" t="s">
+      <c r="J29" s="71" t="s">
         <v>36</v>
-      </c>
-      <c r="J29" s="71" t="s">
-        <v>37</v>
       </c>
       <c r="M29" s="9"/>
     </row>
@@ -1722,24 +1569,20 @@
         <v>1</v>
       </c>
       <c r="B31" s="93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="93"/>
       <c r="D31" s="93"/>
       <c r="E31" s="93"/>
       <c r="F31" s="93"/>
       <c r="G31" s="22">
-        <v>10</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H31" s="22"/>
       <c r="I31" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J31" s="23"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -1747,599 +1590,71 @@
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
     </row>
-    <row r="32" spans="1:16" customHeight="1" ht="45">
-      <c r="A32" s="94">
-        <v>2</v>
-      </c>
+    <row r="32" spans="1:16" customHeight="1" ht="370">
+      <c r="A32" s="94"/>
       <c r="B32" s="94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="95"/>
       <c r="D32" s="95"/>
       <c r="E32" s="95"/>
       <c r="F32" s="95"/>
-      <c r="G32" s="95">
-        <v>10</v>
-      </c>
-      <c r="H32" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="95" t="s">
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="95" t="s">
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="101" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" customHeight="1" ht="45">
-      <c r="A33" s="94">
-        <v>3</v>
-      </c>
-      <c r="B33" s="94" t="s">
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="97"/>
+    </row>
+    <row r="36" spans="1:16" customHeight="1" ht="60">
+      <c r="A36" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="G38" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95">
-        <v>20</v>
-      </c>
-      <c r="H33" s="95" t="s">
+    </row>
+    <row r="39" spans="1:16">
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="95" t="s">
+      <c r="G40" s="103" t="s">
         <v>45</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" customHeight="1" ht="45">
-      <c r="A34" s="94">
-        <v>4</v>
-      </c>
-      <c r="B34" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95">
-        <v>5</v>
-      </c>
-      <c r="H34" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" customHeight="1" ht="45">
-      <c r="A35" s="94">
-        <v>5</v>
-      </c>
-      <c r="B35" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95">
-        <v>5</v>
-      </c>
-      <c r="H35" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" customHeight="1" ht="45">
-      <c r="A36" s="94">
-        <v>6</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95">
-        <v>5</v>
-      </c>
-      <c r="H36" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" customHeight="1" ht="45">
-      <c r="A37" s="94">
-        <v>7</v>
-      </c>
-      <c r="B37" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95">
-        <v>10</v>
-      </c>
-      <c r="H37" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" customHeight="1" ht="45">
-      <c r="A38" s="94">
-        <v>8</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95">
-        <v>11</v>
-      </c>
-      <c r="H38" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" customHeight="1" ht="45">
-      <c r="A39" s="94">
-        <v>9</v>
-      </c>
-      <c r="B39" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95">
-        <v>5</v>
-      </c>
-      <c r="H39" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" customHeight="1" ht="45">
-      <c r="A40" s="94">
-        <v>10</v>
-      </c>
-      <c r="B40" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95">
-        <v>20</v>
-      </c>
-      <c r="H40" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" customHeight="1" ht="45">
-      <c r="A41" s="94">
-        <v>11</v>
-      </c>
-      <c r="B41" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95">
-        <v>10</v>
-      </c>
-      <c r="H41" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" customHeight="1" ht="45">
-      <c r="A42" s="94">
-        <v>12</v>
-      </c>
-      <c r="B42" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95">
-        <v>10</v>
-      </c>
-      <c r="H42" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" customHeight="1" ht="45">
-      <c r="A43" s="94">
-        <v>13</v>
-      </c>
-      <c r="B43" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95">
-        <v>5</v>
-      </c>
-      <c r="H43" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" s="95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" customHeight="1" ht="45">
-      <c r="A44" s="94">
-        <v>14</v>
-      </c>
-      <c r="B44" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95">
-        <v>2</v>
-      </c>
-      <c r="H44" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" s="95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" customHeight="1" ht="45">
-      <c r="A45" s="94">
-        <v>15</v>
-      </c>
-      <c r="B45" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95">
-        <v>2</v>
-      </c>
-      <c r="H45" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" customHeight="1" ht="45">
-      <c r="A46" s="94">
-        <v>16</v>
-      </c>
-      <c r="B46" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95">
-        <v>2</v>
-      </c>
-      <c r="H46" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" customHeight="1" ht="45">
-      <c r="A47" s="94">
-        <v>17</v>
-      </c>
-      <c r="B47" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95">
-        <v>2</v>
-      </c>
-      <c r="H47" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" customHeight="1" ht="45">
-      <c r="A48" s="94">
-        <v>18</v>
-      </c>
-      <c r="B48" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95">
-        <v>1</v>
-      </c>
-      <c r="H48" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="J48" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" customHeight="1" ht="45">
-      <c r="A49" s="94">
-        <v>19</v>
-      </c>
-      <c r="B49" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95">
-        <v>1</v>
-      </c>
-      <c r="H49" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" customHeight="1" ht="45">
-      <c r="A50" s="94">
-        <v>20</v>
-      </c>
-      <c r="B50" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95">
-        <v>2</v>
-      </c>
-      <c r="H50" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" customHeight="1" ht="45">
-      <c r="A51" s="94">
-        <v>21</v>
-      </c>
-      <c r="B51" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95">
-        <v>2</v>
-      </c>
-      <c r="H51" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" customHeight="1" ht="45">
-      <c r="A52" s="94">
-        <v>22</v>
-      </c>
-      <c r="B52" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95">
-        <v>1</v>
-      </c>
-      <c r="H52" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="J52" s="95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" customHeight="1" ht="45">
-      <c r="A53" s="94">
-        <v>23</v>
-      </c>
-      <c r="B53" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95">
-        <v>1</v>
-      </c>
-      <c r="H53" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="J53" s="95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" customHeight="1" ht="370">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="97"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="G60" s="103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="103" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2387,30 +1702,8 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.23622047244094" right="0.23622047244094" top="0.59055118110236" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>

--- a/procurement_export_rfq.xlsx
+++ b/procurement_export_rfq.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -138,45 +138,6 @@
   </si>
   <si>
     <t>TOTAL OFFER</t>
-  </si>
-  <si>
-    <t>Provision of Meals and Snacks for 2nd Semester QMS Coordination Meeting 
-November 16, 2024 -AM Snacks
-Lasagna with Garlic Bread
-Coke
-Lunch
-Mian Dish: Chicken Inasal + Steamed Rice
-Side Dish: Buttered Shrimp
-Vegetable:Caesar Salad
-Dessert:     Cake/Brownies
-Drinks:         Fresh Mango Shake</t>
-  </si>
-  <si>
-    <t>pax</t>
-  </si>
-  <si>
-    <t>₱ 1,800.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provision of Meals and Snacks for the Training for News, Features, and Technical Writing for PDMU Personnel and the CALABARZON's Association of Government Information Officers (CAGIO)
-November 22, 2024- AM SNACKS
-Spaghetti and Toasted bread and Juice
-BREAKFAST
-Garlic Rice,Scrambled egg
-Young Pork Tocino, Small Pancakes and Coffee
-</t>
-  </si>
-  <si>
-    <t>₱ 400.00</t>
-  </si>
-  <si>
-    <t>Live Out- Accommodation,Breakfast, AM Snacks, Lunch, PM Snacks  
-xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx
-REF:PR No. 2024-10-0493
-Purpose: :Lease of Venue with Meals and Accommodation for the Training on Creative Multimedia for PDMU Personnel and RCIC members on November 20-21, 2024</t>
-  </si>
-  <si>
-    <t>₱ 1,200.00</t>
   </si>
   <si>
     <t>GRAND TOTAL:</t>
@@ -929,61 +890,133 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,8 +1026,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1064,130 +1095,60 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1221,7 +1182,7 @@
         <xdr:cNvPr id="2" name="Shape 2" title="Drawing">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{997597B3-B6CE-4300-B7EE-BF5759651C25}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997597B3-B6CE-4300-B7EE-BF5759651C25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1201,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2190209F-37FE-FD58-9DF2-D5DA1B66A0AD}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2190209F-37FE-FD58-9DF2-D5DA1B66A0AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1259,7 +1220,7 @@
             <xdr:cNvPr id="4" name="Shape 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBC85DBB-A8E5-7A04-52DA-E716D3275883}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC85DBB-A8E5-7A04-52DA-E716D3275883}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1302,7 +1263,7 @@
             <xdr:cNvPr id="5" name="Shape 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2812B20-74A4-93DF-F62E-5AC0DDBF1B9C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2812B20-74A4-93DF-F62E-5AC0DDBF1B9C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1364,7 +1325,7 @@
             <xdr:cNvPr id="6" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C292388F-2CCD-FC96-246E-045832E17763}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C292388F-2CCD-FC96-246E-045832E17763}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1436,7 +1397,7 @@
             <xdr:cNvPr id="7" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC9C875B-44CF-79AE-2800-9CFF5DB49037}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9C875B-44CF-79AE-2800-9CFF5DB49037}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1463,7 @@
             <xdr:cNvPr id="8" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A46CA75-B0F2-9AFE-EE9D-3392D4CAA5D2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A46CA75-B0F2-9AFE-EE9D-3392D4CAA5D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1528,7 @@
             <xdr:cNvPr id="9" name="Shape 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{091F05A3-4037-D468-6809-416D704CCDE6}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091F05A3-4037-D468-6809-416D704CCDE6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1629,7 +1590,7 @@
             <xdr:cNvPr id="10" name="Shape 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{586F92BD-57CD-E3CA-A9E1-B80EE4AC2D4F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586F92BD-57CD-E3CA-A9E1-B80EE4AC2D4F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1724,7 +1685,7 @@
             <xdr:cNvPr id="11" name="Shape 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04DF8DA6-1C70-FF81-2164-8BF9A5A80463}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DF8DA6-1C70-FF81-2164-8BF9A5A80463}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1790,7 +1751,7 @@
             <xdr:cNvPr id="12" name="Shape 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5AC2088-CA43-08A4-B842-95F14D663C8A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AC2088-CA43-08A4-B842-95F14D663C8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1861,7 +1822,7 @@
             <xdr:cNvPr id="13" name="Shape 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7418123F-967E-C42A-1365-8B5CCDEC0CE1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7418123F-967E-C42A-1365-8B5CCDEC0CE1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1923,7 +1884,7 @@
             <xdr:cNvPr id="14" name="Shape 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4EDED75-9DFB-B30D-A3E6-09DE37A2D40E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EDED75-9DFB-B30D-A3E6-09DE37A2D40E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1995,7 +1956,7 @@
             <xdr:cNvPr id="15" name="Shape 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696CFC44-9FC0-7FA3-4C1E-2F9A4111627A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696CFC44-9FC0-7FA3-4C1E-2F9A4111627A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2061,7 +2022,7 @@
             <xdr:cNvPr id="16" name="Shape 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DABF58D-FBB2-52F9-2BC5-9259A16CFCCD}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DABF58D-FBB2-52F9-2BC5-9259A16CFCCD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2124,7 +2085,7 @@
             <xdr:cNvPr id="17" name="Shape 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA4111E8-23B2-BE3F-B1A2-34AFAFD98568}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4111E8-23B2-BE3F-B1A2-34AFAFD98568}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2186,7 +2147,7 @@
             <xdr:cNvPr id="18" name="Shape 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{830876BD-4A92-6CAB-ECED-884202BC952D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830876BD-4A92-6CAB-ECED-884202BC952D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2258,7 +2219,7 @@
             <xdr:cNvPr id="19" name="Shape 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{243A8116-65E9-689B-C3D8-27EECD2D995B}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243A8116-65E9-689B-C3D8-27EECD2D995B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2324,7 +2285,7 @@
             <xdr:cNvPr id="20" name="Shape 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41828F98-C228-3B2D-24BD-D8F4CB0E9A13}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41828F98-C228-3B2D-24BD-D8F4CB0E9A13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2407,7 +2368,7 @@
         <xdr:cNvPr id="21" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6722A0BC-258A-4DCB-B1F1-009CF7CA2FB1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6722A0BC-258A-4DCB-B1F1-009CF7CA2FB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2757,20 +2718,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2788,19 +2749,19 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="109"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2819,19 +2780,19 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="109"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2879,16 +2840,16 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" s="10" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2914,24 +2875,24 @@
       <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="1:27" s="10" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="143" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="147"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="11"/>
@@ -2949,20 +2910,20 @@
       <c r="AA6" s="9"/>
     </row>
     <row r="7" spans="1:27" s="10" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -2980,20 +2941,20 @@
       <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3011,20 +2972,20 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="133"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -3042,22 +3003,22 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -3075,20 +3036,20 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -3106,18 +3067,18 @@
       <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -3135,20 +3096,20 @@
       <c r="AA12" s="9"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -3166,22 +3127,22 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="105" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -3199,18 +3160,18 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="107"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3228,22 +3189,22 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="105" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -3261,20 +3222,20 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -3292,20 +3253,20 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="105" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -3323,20 +3284,20 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -3354,18 +3315,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -3383,20 +3344,20 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -3414,18 +3375,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -3443,11 +3404,11 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="108"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="78"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -3472,13 +3433,13 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -3503,22 +3464,22 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="76">
+      <c r="A25" s="102">
         <v>61750</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="82" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
       <c r="M25" s="1"/>
       <c r="N25" s="17"/>
       <c r="O25" s="1"/>
@@ -3536,20 +3497,20 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="85" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3567,32 +3528,32 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="96" t="s">
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="100" t="s">
+      <c r="H27" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102" t="s">
+      <c r="I27" s="125"/>
+      <c r="J27" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="69" t="s">
+      <c r="K27" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="70"/>
+      <c r="L27" s="129"/>
       <c r="M27" s="1"/>
       <c r="N27" s="17"/>
       <c r="O27" s="1"/>
@@ -3610,20 +3571,20 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="89"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="99"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="103"/>
+      <c r="J28" s="127"/>
       <c r="K28" s="20" t="s">
         <v>36</v>
       </c>
@@ -3646,29 +3607,19 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="71">
-        <v>1</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="71">
-        <v>5</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="72"/>
+    <row r="29" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="130"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="132"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
       <c r="O29" s="9"/>
@@ -3685,19 +3636,19 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="72"/>
+    <row r="30" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="132"/>
       <c r="M30" s="22">
         <f>I30*G30</f>
         <v>0</v>
@@ -3717,19 +3668,19 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" s="10" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
+    <row r="31" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="132"/>
       <c r="M31" s="22"/>
       <c r="N31" s="23"/>
       <c r="O31" s="9"/>
@@ -3746,25 +3697,15 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
-        <v>2</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="25">
-        <v>5</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>42</v>
-      </c>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="27"/>
       <c r="J32" s="24"/>
       <c r="K32" s="28"/>
@@ -3785,23 +3726,15 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="241.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="31">
-        <v>30</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
@@ -3823,28 +3756,28 @@
     </row>
     <row r="34" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35"/>
-      <c r="B34" s="62" t="s">
-        <v>45</v>
+      <c r="B34" s="141" t="s">
+        <v>38</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143"/>
       <c r="L34" s="36"/>
     </row>
     <row r="35" spans="1:27" ht="362.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
-      <c r="B35" s="60" t="s">
-        <v>46</v>
+      <c r="B35" s="131" t="s">
+        <v>39</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
@@ -3898,20 +3831,20 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="65" t="s">
-        <v>47</v>
+      <c r="A37" s="144" t="s">
+        <v>40</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="5"/>
       <c r="D37" s="39"/>
       <c r="E37" s="11"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="67" t="s">
-        <v>48</v>
+      <c r="I37" s="146" t="s">
+        <v>41</v>
       </c>
-      <c r="J37" s="68"/>
+      <c r="J37" s="147"/>
       <c r="K37" s="40"/>
       <c r="L37" s="41"/>
       <c r="M37" s="1"/>
@@ -3960,20 +3893,20 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51" t="s">
-        <v>49</v>
+      <c r="A39" s="133" t="s">
+        <v>42</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
       <c r="M39" s="42"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
@@ -3991,18 +3924,18 @@
       <c r="AA39" s="42"/>
     </row>
     <row r="40" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
@@ -4020,18 +3953,18 @@
       <c r="AA40" s="42"/>
     </row>
     <row r="41" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="135"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4116,11 +4049,11 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="54" t="s">
-        <v>50</v>
+      <c r="J44" s="136" t="s">
+        <v>43</v>
       </c>
-      <c r="K44" s="55"/>
-      <c r="L44" s="56"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="81"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4176,11 +4109,11 @@
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
-      <c r="J46" s="57" t="s">
-        <v>51</v>
+      <c r="J46" s="137" t="s">
+        <v>44</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="139"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -31722,32 +31655,24 @@
     <row r="998" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="A11:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:L15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:L17"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="F18:L22"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="A39:L41"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E26"/>
     <mergeCell ref="F25:L25"/>
@@ -31759,24 +31684,32 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="A39:L41"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:L17"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="F18:L22"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="A11:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:L15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
